--- a/Personality_limited/rulex_results/Scoring_Rules_16pers_lim3.xlsx
+++ b/Personality_limited/rulex_results/Scoring_Rules_16pers_lim3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CNF-Research And Development\TU Dublin\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tudublin-my.sharepoint.com/personal/lucas_rizzo_tudublin_ie/Documents/rulex/Multiclass/Personality_limited/rulex_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3102F262-8577-45F8-8084-BAFCEAA721BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B15F7D1-2961-46ED-88CB-CDDA90A949C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30680" yWindow="1880" windowWidth="28800" windowHeight="15290" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Error Max 0.050 Fold 1" sheetId="1" r:id="rId1"/>
@@ -418,54 +418,6 @@
     <t>target</t>
   </si>
   <si>
-    <t>The Champion</t>
-  </si>
-  <si>
-    <t>The Commander</t>
-  </si>
-  <si>
-    <t>The Composer</t>
-  </si>
-  <si>
-    <t>The Counselor</t>
-  </si>
-  <si>
-    <t>The Craftsman</t>
-  </si>
-  <si>
-    <t>The Doer</t>
-  </si>
-  <si>
-    <t>The Giver</t>
-  </si>
-  <si>
-    <t>The Idealist</t>
-  </si>
-  <si>
-    <t>The Inspector</t>
-  </si>
-  <si>
-    <t>The Mastermind</t>
-  </si>
-  <si>
-    <t>The Nurturer</t>
-  </si>
-  <si>
-    <t>The Performer</t>
-  </si>
-  <si>
-    <t>The Provider</t>
-  </si>
-  <si>
-    <t>The Supervisor</t>
-  </si>
-  <si>
-    <t>The Thinker</t>
-  </si>
-  <si>
-    <t>The Visionary</t>
-  </si>
-  <si>
     <t>Total right</t>
   </si>
   <si>
@@ -1493,6 +1445,54 @@
   </si>
   <si>
     <t>Q9 &gt; -1</t>
+  </si>
+  <si>
+    <t>TheChampion</t>
+  </si>
+  <si>
+    <t>TheCommander</t>
+  </si>
+  <si>
+    <t>TheComposer</t>
+  </si>
+  <si>
+    <t>TheCounselor</t>
+  </si>
+  <si>
+    <t>TheCraftsman</t>
+  </si>
+  <si>
+    <t>TheDoer</t>
+  </si>
+  <si>
+    <t>TheGiver</t>
+  </si>
+  <si>
+    <t>TheIdealist</t>
+  </si>
+  <si>
+    <t>TheInspector</t>
+  </si>
+  <si>
+    <t>TheMastermind</t>
+  </si>
+  <si>
+    <t>TheNurturer</t>
+  </si>
+  <si>
+    <t>ThePerformer</t>
+  </si>
+  <si>
+    <t>TheProvider</t>
+  </si>
+  <si>
+    <t>TheSupervisor</t>
+  </si>
+  <si>
+    <t>TheThinker</t>
+  </si>
+  <si>
+    <t>TheVisionary</t>
   </si>
 </sst>
 </file>
@@ -1838,14 +1838,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="13" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1859,13 +1863,13 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -1886,7 +1890,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1897,7 +1901,7 @@
         <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>474</v>
       </c>
       <c r="E2" s="1">
         <v>3760</v>
@@ -1927,7 +1931,7 @@
         <v>0.34080899999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1938,7 +1942,7 @@
         <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>474</v>
       </c>
       <c r="E3" s="1">
         <v>3760</v>
@@ -1965,7 +1969,7 @@
         <v>0.33357599999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1976,7 +1980,7 @@
         <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>474</v>
       </c>
       <c r="E4" s="1">
         <v>3760</v>
@@ -2006,7 +2010,7 @@
         <v>0.32561600000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2017,7 +2021,7 @@
         <v>130</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>475</v>
       </c>
       <c r="E5" s="1">
         <v>3737</v>
@@ -2047,7 +2051,7 @@
         <v>0.34119899999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2058,7 +2062,7 @@
         <v>130</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>475</v>
       </c>
       <c r="E6" s="1">
         <v>3737</v>
@@ -2085,7 +2089,7 @@
         <v>0.33331499999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2096,7 +2100,7 @@
         <v>130</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>475</v>
       </c>
       <c r="E7" s="1">
         <v>3737</v>
@@ -2126,7 +2130,7 @@
         <v>0.32548700000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2137,7 +2141,7 @@
         <v>130</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>476</v>
       </c>
       <c r="E8" s="1">
         <v>3746</v>
@@ -2167,7 +2171,7 @@
         <v>0.354072</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2178,7 +2182,7 @@
         <v>130</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
+        <v>476</v>
       </c>
       <c r="E9" s="1">
         <v>3746</v>
@@ -2205,7 +2209,7 @@
         <v>0.33866099999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2216,7 +2220,7 @@
         <v>130</v>
       </c>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>476</v>
       </c>
       <c r="E10" s="1">
         <v>3746</v>
@@ -2243,7 +2247,7 @@
         <v>0.30726700000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2254,7 +2258,7 @@
         <v>130</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>477</v>
       </c>
       <c r="E11" s="1">
         <v>3761</v>
@@ -2281,7 +2285,7 @@
         <v>0.35542099999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2292,7 +2296,7 @@
         <v>130</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>477</v>
       </c>
       <c r="E12" s="1">
         <v>3761</v>
@@ -2322,7 +2326,7 @@
         <v>0.348387</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2333,7 +2337,7 @@
         <v>130</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>477</v>
       </c>
       <c r="E13" s="1">
         <v>3761</v>
@@ -2360,7 +2364,7 @@
         <v>0.29619299999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2371,7 +2375,7 @@
         <v>130</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>478</v>
       </c>
       <c r="E14" s="1">
         <v>3755</v>
@@ -2398,7 +2402,7 @@
         <v>0.340424</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2409,7 +2413,7 @@
         <v>130</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>478</v>
       </c>
       <c r="E15" s="1">
         <v>3755</v>
@@ -2439,7 +2443,7 @@
         <v>0.33465800000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2450,7 +2454,7 @@
         <v>130</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>478</v>
       </c>
       <c r="E16" s="1">
         <v>3755</v>
@@ -2477,7 +2481,7 @@
         <v>0.32491799999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2488,7 +2492,7 @@
         <v>130</v>
       </c>
       <c r="D17" t="s">
-        <v>136</v>
+        <v>479</v>
       </c>
       <c r="E17" s="1">
         <v>3749</v>
@@ -2515,7 +2519,7 @@
         <v>0.33995399999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2526,7 +2530,7 @@
         <v>130</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>479</v>
       </c>
       <c r="E18" s="1">
         <v>3749</v>
@@ -2550,7 +2554,7 @@
         <v>0.32906600000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2561,7 +2565,7 @@
         <v>130</v>
       </c>
       <c r="D19" t="s">
-        <v>136</v>
+        <v>479</v>
       </c>
       <c r="E19" s="1">
         <v>3749</v>
@@ -2591,7 +2595,7 @@
         <v>0.33098100000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2602,7 +2606,7 @@
         <v>130</v>
       </c>
       <c r="D20" t="s">
-        <v>137</v>
+        <v>480</v>
       </c>
       <c r="E20" s="1">
         <v>3743</v>
@@ -2629,7 +2633,7 @@
         <v>0.34022000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2640,7 +2644,7 @@
         <v>130</v>
       </c>
       <c r="D21" t="s">
-        <v>137</v>
+        <v>480</v>
       </c>
       <c r="E21" s="1">
         <v>3743</v>
@@ -2670,7 +2674,7 @@
         <v>0.32974300000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2681,7 +2685,7 @@
         <v>130</v>
       </c>
       <c r="D22" t="s">
-        <v>137</v>
+        <v>480</v>
       </c>
       <c r="E22" s="1">
         <v>3743</v>
@@ -2711,7 +2715,7 @@
         <v>0.33003700000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2722,7 +2726,7 @@
         <v>130</v>
       </c>
       <c r="D23" t="s">
-        <v>138</v>
+        <v>481</v>
       </c>
       <c r="E23" s="1">
         <v>3734</v>
@@ -2749,7 +2753,7 @@
         <v>0.37305300000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2760,7 +2764,7 @@
         <v>130</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>481</v>
       </c>
       <c r="E24" s="1">
         <v>3734</v>
@@ -2790,7 +2794,7 @@
         <v>0.35446100000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2801,7 +2805,7 @@
         <v>130</v>
       </c>
       <c r="D25" t="s">
-        <v>138</v>
+        <v>481</v>
       </c>
       <c r="E25" s="1">
         <v>3734</v>
@@ -2828,7 +2832,7 @@
         <v>0.27248600000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2839,7 +2843,7 @@
         <v>130</v>
       </c>
       <c r="D26" t="s">
-        <v>139</v>
+        <v>482</v>
       </c>
       <c r="E26" s="1">
         <v>3756</v>
@@ -2866,7 +2870,7 @@
         <v>0.38922699999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2877,7 +2881,7 @@
         <v>130</v>
       </c>
       <c r="D27" t="s">
-        <v>139</v>
+        <v>482</v>
       </c>
       <c r="E27" s="1">
         <v>3756</v>
@@ -2904,7 +2908,7 @@
         <v>0.306869</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2915,7 +2919,7 @@
         <v>130</v>
       </c>
       <c r="D28" t="s">
-        <v>139</v>
+        <v>482</v>
       </c>
       <c r="E28" s="1">
         <v>3756</v>
@@ -2942,7 +2946,7 @@
         <v>0.30390299999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2953,7 +2957,7 @@
         <v>130</v>
       </c>
       <c r="D29" t="s">
-        <v>140</v>
+        <v>483</v>
       </c>
       <c r="E29" s="1">
         <v>3743</v>
@@ -2983,7 +2987,7 @@
         <v>0.35945199999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2994,7 +2998,7 @@
         <v>130</v>
       </c>
       <c r="D30" t="s">
-        <v>140</v>
+        <v>483</v>
       </c>
       <c r="E30" s="1">
         <v>3743</v>
@@ -3024,7 +3028,7 @@
         <v>0.34611399999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3035,7 +3039,7 @@
         <v>130</v>
       </c>
       <c r="D31" t="s">
-        <v>140</v>
+        <v>483</v>
       </c>
       <c r="E31" s="1">
         <v>3743</v>
@@ -3059,7 +3063,7 @@
         <v>0.294435</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3070,7 +3074,7 @@
         <v>130</v>
       </c>
       <c r="D32" t="s">
-        <v>141</v>
+        <v>484</v>
       </c>
       <c r="E32" s="1">
         <v>3739</v>
@@ -3100,7 +3104,7 @@
         <v>0.44337500000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3111,7 +3115,7 @@
         <v>130</v>
       </c>
       <c r="D33" t="s">
-        <v>141</v>
+        <v>484</v>
       </c>
       <c r="E33" s="1">
         <v>3739</v>
@@ -3138,7 +3142,7 @@
         <v>0.28432000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3149,7 +3153,7 @@
         <v>130</v>
       </c>
       <c r="D34" t="s">
-        <v>141</v>
+        <v>484</v>
       </c>
       <c r="E34" s="1">
         <v>3739</v>
@@ -3173,7 +3177,7 @@
         <v>0.27230500000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3184,7 +3188,7 @@
         <v>130</v>
       </c>
       <c r="D35" t="s">
-        <v>142</v>
+        <v>485</v>
       </c>
       <c r="E35" s="1">
         <v>3769</v>
@@ -3214,7 +3218,7 @@
         <v>0.46273700000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3225,7 +3229,7 @@
         <v>130</v>
       </c>
       <c r="D36" t="s">
-        <v>142</v>
+        <v>485</v>
       </c>
       <c r="E36" s="1">
         <v>3769</v>
@@ -3252,7 +3256,7 @@
         <v>0.27209100000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3263,7 +3267,7 @@
         <v>130</v>
       </c>
       <c r="D37" t="s">
-        <v>142</v>
+        <v>485</v>
       </c>
       <c r="E37" s="1">
         <v>3769</v>
@@ -3290,7 +3294,7 @@
         <v>0.26517200000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3301,7 +3305,7 @@
         <v>130</v>
       </c>
       <c r="D38" t="s">
-        <v>143</v>
+        <v>486</v>
       </c>
       <c r="E38" s="1">
         <v>3746</v>
@@ -3331,7 +3335,7 @@
         <v>0.36091000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3342,7 +3346,7 @@
         <v>130</v>
       </c>
       <c r="D39" t="s">
-        <v>143</v>
+        <v>486</v>
       </c>
       <c r="E39" s="1">
         <v>3746</v>
@@ -3372,7 +3376,7 @@
         <v>0.339723</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3383,7 +3387,7 @@
         <v>130</v>
       </c>
       <c r="D40" t="s">
-        <v>143</v>
+        <v>486</v>
       </c>
       <c r="E40" s="1">
         <v>3746</v>
@@ -3410,7 +3414,7 @@
         <v>0.29936699999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3421,7 +3425,7 @@
         <v>130</v>
       </c>
       <c r="D41" t="s">
-        <v>144</v>
+        <v>487</v>
       </c>
       <c r="E41" s="1">
         <v>3759</v>
@@ -3448,7 +3452,7 @@
         <v>0.34934599999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3459,7 +3463,7 @@
         <v>130</v>
       </c>
       <c r="D42" t="s">
-        <v>144</v>
+        <v>487</v>
       </c>
       <c r="E42" s="1">
         <v>3759</v>
@@ -3489,7 +3493,7 @@
         <v>0.34895900000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3500,7 +3504,7 @@
         <v>130</v>
       </c>
       <c r="D43" t="s">
-        <v>144</v>
+        <v>487</v>
       </c>
       <c r="E43" s="1">
         <v>3759</v>
@@ -3527,7 +3531,7 @@
         <v>0.30169600000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3538,7 +3542,7 @@
         <v>130</v>
       </c>
       <c r="D44" t="s">
-        <v>145</v>
+        <v>488</v>
       </c>
       <c r="E44" s="1">
         <v>3742</v>
@@ -3568,7 +3572,7 @@
         <v>0.36549300000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3579,7 +3583,7 @@
         <v>130</v>
       </c>
       <c r="D45" t="s">
-        <v>145</v>
+        <v>488</v>
       </c>
       <c r="E45" s="1">
         <v>3742</v>
@@ -3609,7 +3613,7 @@
         <v>0.33893200000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3620,7 +3624,7 @@
         <v>130</v>
       </c>
       <c r="D46" t="s">
-        <v>145</v>
+        <v>488</v>
       </c>
       <c r="E46" s="1">
         <v>3742</v>
@@ -3644,7 +3648,7 @@
         <v>0.29557499999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3655,7 +3659,7 @@
         <v>130</v>
       </c>
       <c r="D47" t="s">
-        <v>146</v>
+        <v>489</v>
       </c>
       <c r="E47" s="1">
         <v>3760</v>
@@ -3685,7 +3689,7 @@
         <v>0.33698</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3696,7 +3700,7 @@
         <v>130</v>
       </c>
       <c r="D48" t="s">
-        <v>146</v>
+        <v>489</v>
       </c>
       <c r="E48" s="1">
         <v>3760</v>
@@ -3723,7 +3727,7 @@
         <v>0.33303899999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3734,7 +3738,7 @@
         <v>130</v>
       </c>
       <c r="D49" t="s">
-        <v>146</v>
+        <v>489</v>
       </c>
       <c r="E49" s="1">
         <v>3760</v>
@@ -3776,14 +3780,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="13" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -3797,13 +3801,13 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -3824,7 +3828,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3835,7 +3839,7 @@
         <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>474</v>
       </c>
       <c r="E2" s="1">
         <v>3760</v>
@@ -3850,19 +3854,19 @@
         <v>7.7845999999999999E-2</v>
       </c>
       <c r="I2" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="J2" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="K2" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="M2" s="2">
         <v>0.386322</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3873,7 +3877,7 @@
         <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>474</v>
       </c>
       <c r="E3" s="1">
         <v>3760</v>
@@ -3888,22 +3892,22 @@
         <v>7.8414999999999999E-2</v>
       </c>
       <c r="I3" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="J3" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="K3" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="L3" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="M3" s="2">
         <v>0.38490400000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3914,7 +3918,7 @@
         <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>474</v>
       </c>
       <c r="E4" s="1">
         <v>3760</v>
@@ -3929,16 +3933,16 @@
         <v>7.7010999999999996E-2</v>
       </c>
       <c r="I4" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="J4" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="M4" s="2">
         <v>0.22877400000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3949,7 +3953,7 @@
         <v>130</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>475</v>
       </c>
       <c r="E5" s="1">
         <v>3737</v>
@@ -3964,22 +3968,22 @@
         <v>9.3828999999999996E-2</v>
       </c>
       <c r="I5" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="J5" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="K5" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="L5" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="M5" s="2">
         <v>0.350271</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3990,7 +3994,7 @@
         <v>130</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>475</v>
       </c>
       <c r="E6" s="1">
         <v>3737</v>
@@ -4005,22 +4009,22 @@
         <v>8.3963999999999997E-2</v>
       </c>
       <c r="I6" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="J6" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="K6" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="L6" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="M6" s="2">
         <v>0.34884399999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4031,7 +4035,7 @@
         <v>130</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>475</v>
       </c>
       <c r="E7" s="1">
         <v>3737</v>
@@ -4046,22 +4050,22 @@
         <v>8.2045000000000007E-2</v>
       </c>
       <c r="I7" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="J7" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="K7" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="L7" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="M7" s="2">
         <v>0.30088599999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4072,7 +4076,7 @@
         <v>130</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>476</v>
       </c>
       <c r="E8" s="1">
         <v>3746</v>
@@ -4087,22 +4091,22 @@
         <v>9.7417000000000004E-2</v>
       </c>
       <c r="I8" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="J8" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="K8" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="L8" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="M8" s="2">
         <v>0.39488600000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4113,7 +4117,7 @@
         <v>130</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
+        <v>476</v>
       </c>
       <c r="E9" s="1">
         <v>3746</v>
@@ -4128,22 +4132,22 @@
         <v>8.0812999999999996E-2</v>
       </c>
       <c r="I9" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="J9" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="K9" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="L9" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="M9" s="2">
         <v>0.37722600000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4154,7 +4158,7 @@
         <v>130</v>
       </c>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>476</v>
       </c>
       <c r="E10" s="1">
         <v>3746</v>
@@ -4169,16 +4173,16 @@
         <v>9.6457000000000001E-2</v>
       </c>
       <c r="I10" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="J10" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="M10" s="2">
         <v>0.22788900000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4189,7 +4193,7 @@
         <v>130</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>477</v>
       </c>
       <c r="E11" s="1">
         <v>3761</v>
@@ -4204,22 +4208,22 @@
         <v>8.6525000000000005E-2</v>
       </c>
       <c r="I11" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="J11" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="K11" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="L11" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="M11" s="2">
         <v>0.39295400000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4230,7 +4234,7 @@
         <v>130</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>477</v>
       </c>
       <c r="E12" s="1">
         <v>3761</v>
@@ -4245,22 +4249,22 @@
         <v>8.9672000000000002E-2</v>
       </c>
       <c r="I12" t="s">
+        <v>179</v>
+      </c>
+      <c r="J12" t="s">
+        <v>141</v>
+      </c>
+      <c r="K12" t="s">
+        <v>153</v>
+      </c>
+      <c r="L12" t="s">
         <v>195</v>
-      </c>
-      <c r="J12" t="s">
-        <v>157</v>
-      </c>
-      <c r="K12" t="s">
-        <v>169</v>
-      </c>
-      <c r="L12" t="s">
-        <v>211</v>
       </c>
       <c r="M12" s="2">
         <v>0.37617099999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4271,7 +4275,7 @@
         <v>130</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>477</v>
       </c>
       <c r="E13" s="1">
         <v>3761</v>
@@ -4286,19 +4290,19 @@
         <v>9.7461000000000006E-2</v>
       </c>
       <c r="I13" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="J13" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="K13" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="M13" s="2">
         <v>0.230875</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4309,7 +4313,7 @@
         <v>130</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>478</v>
       </c>
       <c r="E14" s="1">
         <v>3755</v>
@@ -4324,22 +4328,22 @@
         <v>8.9431999999999998E-2</v>
       </c>
       <c r="I14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" t="s">
         <v>155</v>
       </c>
-      <c r="J14" t="s">
-        <v>171</v>
-      </c>
       <c r="K14" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="M14" s="2">
         <v>0.45340599999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4350,7 +4354,7 @@
         <v>130</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>478</v>
       </c>
       <c r="E15" s="1">
         <v>3755</v>
@@ -4365,22 +4369,22 @@
         <v>9.9051E-2</v>
       </c>
       <c r="I15" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="J15" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="K15" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="L15" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="M15" s="2">
         <v>0.30105100000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4391,7 +4395,7 @@
         <v>130</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>478</v>
       </c>
       <c r="E16" s="1">
         <v>3755</v>
@@ -4406,16 +4410,16 @@
         <v>9.2453999999999995E-2</v>
       </c>
       <c r="I16" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="J16" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="M16" s="2">
         <v>0.24554300000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4426,7 +4430,7 @@
         <v>130</v>
       </c>
       <c r="D17" t="s">
-        <v>136</v>
+        <v>479</v>
       </c>
       <c r="E17" s="1">
         <v>3749</v>
@@ -4441,22 +4445,22 @@
         <v>8.0159999999999995E-2</v>
       </c>
       <c r="I17" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="J17" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="K17" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="L17" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="M17" s="2">
         <v>0.34789799999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4467,7 +4471,7 @@
         <v>130</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>479</v>
       </c>
       <c r="E18" s="1">
         <v>3749</v>
@@ -4482,22 +4486,22 @@
         <v>8.2435999999999995E-2</v>
       </c>
       <c r="I18" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="J18" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="K18" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="M18" s="2">
         <v>0.32659500000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4508,7 +4512,7 @@
         <v>130</v>
       </c>
       <c r="D19" t="s">
-        <v>136</v>
+        <v>479</v>
       </c>
       <c r="E19" s="1">
         <v>3749</v>
@@ -4523,22 +4527,22 @@
         <v>7.9644000000000006E-2</v>
       </c>
       <c r="I19" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="J19" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="K19" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="L19" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="M19" s="2">
         <v>0.32550600000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4549,7 +4553,7 @@
         <v>130</v>
       </c>
       <c r="D20" t="s">
-        <v>137</v>
+        <v>480</v>
       </c>
       <c r="E20" s="1">
         <v>3743</v>
@@ -4564,22 +4568,22 @@
         <v>8.6497000000000004E-2</v>
       </c>
       <c r="I20" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="J20" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="K20" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="M20" s="2">
         <v>0.40057599999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4590,7 +4594,7 @@
         <v>130</v>
       </c>
       <c r="D21" t="s">
-        <v>137</v>
+        <v>480</v>
       </c>
       <c r="E21" s="1">
         <v>3743</v>
@@ -4605,19 +4609,19 @@
         <v>8.3617999999999998E-2</v>
       </c>
       <c r="I21" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="J21" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="K21" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="M21" s="2">
         <v>0.366896</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4628,7 +4632,7 @@
         <v>130</v>
       </c>
       <c r="D22" t="s">
-        <v>137</v>
+        <v>480</v>
       </c>
       <c r="E22" s="1">
         <v>3743</v>
@@ -4643,19 +4647,19 @@
         <v>6.5645999999999996E-2</v>
       </c>
       <c r="I22" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="J22" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="K22" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="M22" s="2">
         <v>0.23252800000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4666,7 +4670,7 @@
         <v>130</v>
       </c>
       <c r="D23" t="s">
-        <v>138</v>
+        <v>481</v>
       </c>
       <c r="E23" s="1">
         <v>3734</v>
@@ -4681,22 +4685,22 @@
         <v>8.8527999999999996E-2</v>
       </c>
       <c r="I23" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="J23" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="K23" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="L23" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="M23" s="2">
         <v>0.41623399999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4707,7 +4711,7 @@
         <v>130</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>481</v>
       </c>
       <c r="E24" s="1">
         <v>3734</v>
@@ -4722,19 +4726,19 @@
         <v>9.3787999999999996E-2</v>
       </c>
       <c r="I24" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="J24" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="K24" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="M24" s="2">
         <v>0.37782900000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4745,7 +4749,7 @@
         <v>130</v>
       </c>
       <c r="D25" t="s">
-        <v>138</v>
+        <v>481</v>
       </c>
       <c r="E25" s="1">
         <v>3734</v>
@@ -4760,16 +4764,16 @@
         <v>9.6419000000000005E-2</v>
       </c>
       <c r="I25" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="J25" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="M25" s="2">
         <v>0.20593700000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4780,7 +4784,7 @@
         <v>130</v>
       </c>
       <c r="D26" t="s">
-        <v>139</v>
+        <v>482</v>
       </c>
       <c r="E26" s="1">
         <v>3756</v>
@@ -4795,22 +4799,22 @@
         <v>9.5212000000000005E-2</v>
       </c>
       <c r="I26" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="J26" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="K26" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="L26" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="M26" s="2">
         <v>0.50384700000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4821,7 +4825,7 @@
         <v>130</v>
       </c>
       <c r="D27" t="s">
-        <v>139</v>
+        <v>482</v>
       </c>
       <c r="E27" s="1">
         <v>3756</v>
@@ -4836,19 +4840,19 @@
         <v>7.9708000000000001E-2</v>
       </c>
       <c r="I27" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="J27" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="K27" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="M27" s="2">
         <v>0.29322700000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4859,7 +4863,7 @@
         <v>130</v>
       </c>
       <c r="D28" t="s">
-        <v>139</v>
+        <v>482</v>
       </c>
       <c r="E28" s="1">
         <v>3756</v>
@@ -4874,19 +4878,19 @@
         <v>9.3060000000000004E-2</v>
       </c>
       <c r="I28" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="J28" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="K28" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="M28" s="2">
         <v>0.202926</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4897,7 +4901,7 @@
         <v>130</v>
       </c>
       <c r="D29" t="s">
-        <v>140</v>
+        <v>483</v>
       </c>
       <c r="E29" s="1">
         <v>3743</v>
@@ -4912,22 +4916,22 @@
         <v>7.9813999999999996E-2</v>
       </c>
       <c r="I29" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="J29" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="K29" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="L29" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="M29" s="2">
         <v>0.46097199999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4938,7 +4942,7 @@
         <v>130</v>
       </c>
       <c r="D30" t="s">
-        <v>140</v>
+        <v>483</v>
       </c>
       <c r="E30" s="1">
         <v>3743</v>
@@ -4953,16 +4957,16 @@
         <v>9.2452000000000006E-2</v>
       </c>
       <c r="I30" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="J30" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="M30" s="2">
         <v>0.27092899999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4973,7 +4977,7 @@
         <v>130</v>
       </c>
       <c r="D31" t="s">
-        <v>140</v>
+        <v>483</v>
       </c>
       <c r="E31" s="1">
         <v>3743</v>
@@ -4988,16 +4992,16 @@
         <v>9.9615999999999996E-2</v>
       </c>
       <c r="I31" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="J31" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="M31" s="2">
         <v>0.2681</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5008,7 +5012,7 @@
         <v>130</v>
       </c>
       <c r="D32" t="s">
-        <v>141</v>
+        <v>484</v>
       </c>
       <c r="E32" s="1">
         <v>3739</v>
@@ -5023,22 +5027,22 @@
         <v>8.4322999999999995E-2</v>
       </c>
       <c r="I32" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="J32" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="K32" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="L32" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="M32" s="2">
         <v>0.380131</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5049,7 +5053,7 @@
         <v>130</v>
       </c>
       <c r="D33" t="s">
-        <v>141</v>
+        <v>484</v>
       </c>
       <c r="E33" s="1">
         <v>3739</v>
@@ -5064,22 +5068,22 @@
         <v>8.6277999999999994E-2</v>
       </c>
       <c r="I33" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="J33" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="K33" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="L33" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="M33" s="2">
         <v>0.37793100000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5090,7 +5094,7 @@
         <v>130</v>
       </c>
       <c r="D34" t="s">
-        <v>141</v>
+        <v>484</v>
       </c>
       <c r="E34" s="1">
         <v>3739</v>
@@ -5105,19 +5109,19 @@
         <v>8.3914000000000002E-2</v>
       </c>
       <c r="I34" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="J34" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="K34" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="M34" s="2">
         <v>0.24193700000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5128,7 +5132,7 @@
         <v>130</v>
       </c>
       <c r="D35" t="s">
-        <v>142</v>
+        <v>485</v>
       </c>
       <c r="E35" s="1">
         <v>3769</v>
@@ -5143,22 +5147,22 @@
         <v>9.4895999999999994E-2</v>
       </c>
       <c r="I35" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="J35" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="K35" t="s">
+        <v>223</v>
+      </c>
+      <c r="L35" t="s">
         <v>239</v>
-      </c>
-      <c r="L35" t="s">
-        <v>255</v>
       </c>
       <c r="M35" s="2">
         <v>0.402366</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5169,7 +5173,7 @@
         <v>130</v>
       </c>
       <c r="D36" t="s">
-        <v>142</v>
+        <v>485</v>
       </c>
       <c r="E36" s="1">
         <v>3769</v>
@@ -5184,19 +5188,19 @@
         <v>9.6745999999999999E-2</v>
       </c>
       <c r="I36" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="J36" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="K36" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="M36" s="2">
         <v>0.39421600000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5207,7 +5211,7 @@
         <v>130</v>
       </c>
       <c r="D37" t="s">
-        <v>142</v>
+        <v>485</v>
       </c>
       <c r="E37" s="1">
         <v>3769</v>
@@ -5222,16 +5226,16 @@
         <v>9.4754000000000005E-2</v>
       </c>
       <c r="I37" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="J37" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="M37" s="2">
         <v>0.20341799999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5242,7 +5246,7 @@
         <v>130</v>
       </c>
       <c r="D38" t="s">
-        <v>143</v>
+        <v>486</v>
       </c>
       <c r="E38" s="1">
         <v>3746</v>
@@ -5257,19 +5261,19 @@
         <v>9.7968E-2</v>
       </c>
       <c r="I38" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="J38" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="K38" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="M38" s="2">
         <v>0.445936</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5280,7 +5284,7 @@
         <v>130</v>
       </c>
       <c r="D39" t="s">
-        <v>143</v>
+        <v>486</v>
       </c>
       <c r="E39" s="1">
         <v>3746</v>
@@ -5295,19 +5299,19 @@
         <v>9.2031000000000002E-2</v>
       </c>
       <c r="I39" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J39" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="K39" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="M39" s="2">
         <v>0.27593000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5318,7 +5322,7 @@
         <v>130</v>
       </c>
       <c r="D40" t="s">
-        <v>143</v>
+        <v>486</v>
       </c>
       <c r="E40" s="1">
         <v>3746</v>
@@ -5333,19 +5337,19 @@
         <v>8.3266999999999994E-2</v>
       </c>
       <c r="I40" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="J40" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="K40" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="M40" s="2">
         <v>0.27813399999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5356,7 +5360,7 @@
         <v>130</v>
       </c>
       <c r="D41" t="s">
-        <v>144</v>
+        <v>487</v>
       </c>
       <c r="E41" s="1">
         <v>3759</v>
@@ -5371,22 +5375,22 @@
         <v>8.6842000000000003E-2</v>
       </c>
       <c r="I41" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="J41" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="K41" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="L41" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="M41" s="2">
         <v>0.39626</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -5397,7 +5401,7 @@
         <v>130</v>
       </c>
       <c r="D42" t="s">
-        <v>144</v>
+        <v>487</v>
       </c>
       <c r="E42" s="1">
         <v>3759</v>
@@ -5412,22 +5416,22 @@
         <v>9.4202999999999995E-2</v>
       </c>
       <c r="I42" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="J42" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="K42" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="L42" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="M42" s="2">
         <v>0.37794699999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -5438,7 +5442,7 @@
         <v>130</v>
       </c>
       <c r="D43" t="s">
-        <v>144</v>
+        <v>487</v>
       </c>
       <c r="E43" s="1">
         <v>3759</v>
@@ -5453,16 +5457,16 @@
         <v>9.2193999999999998E-2</v>
       </c>
       <c r="I43" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="J43" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="M43" s="2">
         <v>0.22579299999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -5473,7 +5477,7 @@
         <v>130</v>
       </c>
       <c r="D44" t="s">
-        <v>145</v>
+        <v>488</v>
       </c>
       <c r="E44" s="1">
         <v>3742</v>
@@ -5488,19 +5492,19 @@
         <v>9.3605999999999995E-2</v>
       </c>
       <c r="I44" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="J44" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="K44" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="M44" s="2">
         <v>0.40184300000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -5511,7 +5515,7 @@
         <v>130</v>
       </c>
       <c r="D45" t="s">
-        <v>145</v>
+        <v>488</v>
       </c>
       <c r="E45" s="1">
         <v>3742</v>
@@ -5526,22 +5530,22 @@
         <v>8.7277999999999994E-2</v>
       </c>
       <c r="I45" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="J45" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="K45" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="L45" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="M45" s="2">
         <v>0.37639899999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -5552,7 +5556,7 @@
         <v>130</v>
       </c>
       <c r="D46" t="s">
-        <v>145</v>
+        <v>488</v>
       </c>
       <c r="E46" s="1">
         <v>3742</v>
@@ -5567,16 +5571,16 @@
         <v>9.5028000000000001E-2</v>
       </c>
       <c r="I46" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="J46" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="M46" s="2">
         <v>0.22175800000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -5587,7 +5591,7 @@
         <v>130</v>
       </c>
       <c r="D47" t="s">
-        <v>146</v>
+        <v>489</v>
       </c>
       <c r="E47" s="1">
         <v>3760</v>
@@ -5602,22 +5606,22 @@
         <v>8.9546000000000001E-2</v>
       </c>
       <c r="I47" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="J47" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="K47" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="L47" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="M47" s="2">
         <v>0.35693599999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -5628,7 +5632,7 @@
         <v>130</v>
       </c>
       <c r="D48" t="s">
-        <v>146</v>
+        <v>489</v>
       </c>
       <c r="E48" s="1">
         <v>3760</v>
@@ -5643,19 +5647,19 @@
         <v>8.5491999999999999E-2</v>
       </c>
       <c r="I48" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="J48" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="K48" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="M48" s="2">
         <v>0.32219599999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -5666,7 +5670,7 @@
         <v>130</v>
       </c>
       <c r="D49" t="s">
-        <v>146</v>
+        <v>489</v>
       </c>
       <c r="E49" s="1">
         <v>3760</v>
@@ -5681,16 +5685,16 @@
         <v>8.1295999999999993E-2</v>
       </c>
       <c r="I49" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="J49" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="K49" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="L49" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="M49" s="2">
         <v>0.32086700000000001</v>
@@ -5708,14 +5712,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -5729,13 +5737,13 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -5756,7 +5764,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5767,7 +5775,7 @@
         <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>474</v>
       </c>
       <c r="E2" s="1">
         <v>3760</v>
@@ -5782,19 +5790,19 @@
         <v>0.130603</v>
       </c>
       <c r="I2" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="J2" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="K2" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="M2" s="2">
         <v>0.34667999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5805,7 +5813,7 @@
         <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>474</v>
       </c>
       <c r="E3" s="1">
         <v>3760</v>
@@ -5820,19 +5828,19 @@
         <v>0.13062099999999999</v>
       </c>
       <c r="I3" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="J3" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="K3" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="M3" s="2">
         <v>0.331507</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5843,7 +5851,7 @@
         <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>474</v>
       </c>
       <c r="E4" s="1">
         <v>3760</v>
@@ -5858,19 +5866,19 @@
         <v>0.13771600000000001</v>
       </c>
       <c r="I4" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="J4" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="K4" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="M4" s="2">
         <v>0.32181300000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5881,7 +5889,7 @@
         <v>130</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>475</v>
       </c>
       <c r="E5" s="1">
         <v>3737</v>
@@ -5896,22 +5904,22 @@
         <v>0.12317400000000001</v>
       </c>
       <c r="I5" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="J5" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="K5" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="L5" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="M5" s="2">
         <v>0.38922299999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5922,7 +5930,7 @@
         <v>130</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>475</v>
       </c>
       <c r="E6" s="1">
         <v>3737</v>
@@ -5937,19 +5945,19 @@
         <v>0.121201</v>
       </c>
       <c r="I6" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="J6" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="K6" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="M6" s="2">
         <v>0.31196600000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5960,7 +5968,7 @@
         <v>130</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>475</v>
       </c>
       <c r="E7" s="1">
         <v>3737</v>
@@ -5975,22 +5983,22 @@
         <v>0.12767100000000001</v>
       </c>
       <c r="I7" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="J7" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="K7" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="L7" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="M7" s="2">
         <v>0.29881099999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6001,7 +6009,7 @@
         <v>130</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>476</v>
       </c>
       <c r="E8" s="1">
         <v>3746</v>
@@ -6016,19 +6024,19 @@
         <v>0.13727300000000001</v>
       </c>
       <c r="I8" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="J8" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="K8" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="M8" s="2">
         <v>0.33775100000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6039,7 +6047,7 @@
         <v>130</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
+        <v>476</v>
       </c>
       <c r="E9" s="1">
         <v>3746</v>
@@ -6054,22 +6062,22 @@
         <v>0.13764599999999999</v>
       </c>
       <c r="I9" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="J9" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="K9" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="L9" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="M9" s="2">
         <v>0.33573799999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6080,7 +6088,7 @@
         <v>130</v>
       </c>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>476</v>
       </c>
       <c r="E10" s="1">
         <v>3746</v>
@@ -6095,19 +6103,19 @@
         <v>0.14632100000000001</v>
       </c>
       <c r="I10" t="s">
+        <v>272</v>
+      </c>
+      <c r="J10" t="s">
         <v>288</v>
       </c>
-      <c r="J10" t="s">
-        <v>304</v>
-      </c>
       <c r="K10" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="M10" s="2">
         <v>0.326511</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -6118,7 +6126,7 @@
         <v>130</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>477</v>
       </c>
       <c r="E11" s="1">
         <v>3761</v>
@@ -6133,16 +6141,16 @@
         <v>0.14435100000000001</v>
       </c>
       <c r="I11" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="J11" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="M11" s="2">
         <v>0.34187299999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -6153,7 +6161,7 @@
         <v>130</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>477</v>
       </c>
       <c r="E12" s="1">
         <v>3761</v>
@@ -6168,19 +6176,19 @@
         <v>0.115118</v>
       </c>
       <c r="I12" t="s">
+        <v>250</v>
+      </c>
+      <c r="J12" t="s">
         <v>266</v>
       </c>
-      <c r="J12" t="s">
-        <v>282</v>
-      </c>
       <c r="K12" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="M12" s="2">
         <v>0.336148</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -6191,7 +6199,7 @@
         <v>130</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>477</v>
       </c>
       <c r="E13" s="1">
         <v>3761</v>
@@ -6206,22 +6214,22 @@
         <v>0.146894</v>
       </c>
       <c r="I13" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="J13" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="K13" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="L13" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="M13" s="2">
         <v>0.32197900000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -6232,7 +6240,7 @@
         <v>130</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>478</v>
       </c>
       <c r="E14" s="1">
         <v>3755</v>
@@ -6247,22 +6255,22 @@
         <v>0.13025400000000001</v>
       </c>
       <c r="I14" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="J14" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="K14" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="L14" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="M14" s="2">
         <v>0.34287099999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -6273,7 +6281,7 @@
         <v>130</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>478</v>
       </c>
       <c r="E15" s="1">
         <v>3755</v>
@@ -6288,19 +6296,19 @@
         <v>0.115177</v>
       </c>
       <c r="I15" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="J15" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="K15" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="M15" s="2">
         <v>0.34125899999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -6311,7 +6319,7 @@
         <v>130</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>478</v>
       </c>
       <c r="E16" s="1">
         <v>3755</v>
@@ -6326,19 +6334,19 @@
         <v>0.13764999999999999</v>
       </c>
       <c r="I16" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="J16" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="K16" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="M16" s="2">
         <v>0.31586999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -6349,7 +6357,7 @@
         <v>130</v>
       </c>
       <c r="D17" t="s">
-        <v>136</v>
+        <v>479</v>
       </c>
       <c r="E17" s="1">
         <v>3749</v>
@@ -6364,22 +6372,22 @@
         <v>0.13441800000000001</v>
       </c>
       <c r="I17" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="J17" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="K17" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="L17" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="M17" s="2">
         <v>0.40164899999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -6390,7 +6398,7 @@
         <v>130</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>479</v>
       </c>
       <c r="E18" s="1">
         <v>3749</v>
@@ -6405,19 +6413,19 @@
         <v>0.134187</v>
       </c>
       <c r="I18" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="J18" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="K18" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="M18" s="2">
         <v>0.30851099999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -6428,7 +6436,7 @@
         <v>130</v>
       </c>
       <c r="D19" t="s">
-        <v>136</v>
+        <v>479</v>
       </c>
       <c r="E19" s="1">
         <v>3749</v>
@@ -6443,22 +6451,22 @@
         <v>0.12959999999999999</v>
       </c>
       <c r="I19" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="J19" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="K19" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="L19" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="M19" s="2">
         <v>0.28983999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -6469,7 +6477,7 @@
         <v>130</v>
       </c>
       <c r="D20" t="s">
-        <v>137</v>
+        <v>480</v>
       </c>
       <c r="E20" s="1">
         <v>3743</v>
@@ -6484,16 +6492,16 @@
         <v>0.146615</v>
       </c>
       <c r="I20" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="J20" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="M20" s="2">
         <v>0.338144</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -6504,7 +6512,7 @@
         <v>130</v>
       </c>
       <c r="D21" t="s">
-        <v>137</v>
+        <v>480</v>
       </c>
       <c r="E21" s="1">
         <v>3743</v>
@@ -6519,22 +6527,22 @@
         <v>0.120325</v>
       </c>
       <c r="I21" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="J21" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="K21" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="L21" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="M21" s="2">
         <v>0.34187000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -6545,7 +6553,7 @@
         <v>130</v>
       </c>
       <c r="D22" t="s">
-        <v>137</v>
+        <v>480</v>
       </c>
       <c r="E22" s="1">
         <v>3743</v>
@@ -6560,19 +6568,19 @@
         <v>8.3617999999999998E-2</v>
       </c>
       <c r="I22" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="J22" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="K22" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="M22" s="2">
         <v>0.31998700000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -6583,7 +6591,7 @@
         <v>130</v>
       </c>
       <c r="D23" t="s">
-        <v>138</v>
+        <v>481</v>
       </c>
       <c r="E23" s="1">
         <v>3734</v>
@@ -6598,16 +6606,16 @@
         <v>0.13879</v>
       </c>
       <c r="I23" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="J23" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="M23" s="2">
         <v>0.34762199999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -6618,7 +6626,7 @@
         <v>130</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>481</v>
       </c>
       <c r="E24" s="1">
         <v>3734</v>
@@ -6633,19 +6641,19 @@
         <v>0.13461300000000001</v>
       </c>
       <c r="I24" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="J24" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="K24" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="M24" s="2">
         <v>0.33766000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -6656,7 +6664,7 @@
         <v>130</v>
       </c>
       <c r="D25" t="s">
-        <v>138</v>
+        <v>481</v>
       </c>
       <c r="E25" s="1">
         <v>3734</v>
@@ -6671,22 +6679,22 @@
         <v>0.14294899999999999</v>
       </c>
       <c r="I25" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="J25" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="K25" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="L25" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="M25" s="2">
         <v>0.314718</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -6697,7 +6705,7 @@
         <v>130</v>
       </c>
       <c r="D26" t="s">
-        <v>139</v>
+        <v>482</v>
       </c>
       <c r="E26" s="1">
         <v>3756</v>
@@ -6712,22 +6720,22 @@
         <v>0.14304</v>
       </c>
       <c r="I26" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="J26" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="K26" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="L26" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="M26" s="2">
         <v>0.340034</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -6738,7 +6746,7 @@
         <v>130</v>
       </c>
       <c r="D27" t="s">
-        <v>139</v>
+        <v>482</v>
       </c>
       <c r="E27" s="1">
         <v>3756</v>
@@ -6753,16 +6761,16 @@
         <v>0.14119100000000001</v>
       </c>
       <c r="I27" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="J27" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="M27" s="2">
         <v>0.34061000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -6773,7 +6781,7 @@
         <v>130</v>
       </c>
       <c r="D28" t="s">
-        <v>139</v>
+        <v>482</v>
       </c>
       <c r="E28" s="1">
         <v>3756</v>
@@ -6788,19 +6796,19 @@
         <v>0.13934199999999999</v>
       </c>
       <c r="I28" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="J28" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="K28" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="M28" s="2">
         <v>0.319357</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -6811,7 +6819,7 @@
         <v>130</v>
       </c>
       <c r="D29" t="s">
-        <v>140</v>
+        <v>483</v>
       </c>
       <c r="E29" s="1">
         <v>3743</v>
@@ -6826,19 +6834,19 @@
         <v>0.145318</v>
       </c>
       <c r="I29" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="J29" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="K29" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="M29" s="2">
         <v>0.342694</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -6849,7 +6857,7 @@
         <v>130</v>
       </c>
       <c r="D30" t="s">
-        <v>140</v>
+        <v>483</v>
       </c>
       <c r="E30" s="1">
         <v>3743</v>
@@ -6864,22 +6872,22 @@
         <v>0.13730100000000001</v>
       </c>
       <c r="I30" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="J30" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="K30" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="L30" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="M30" s="2">
         <v>0.32975399999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -6890,7 +6898,7 @@
         <v>130</v>
       </c>
       <c r="D31" t="s">
-        <v>140</v>
+        <v>483</v>
       </c>
       <c r="E31" s="1">
         <v>3743</v>
@@ -6905,22 +6913,22 @@
         <v>0.13850999999999999</v>
       </c>
       <c r="I31" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="J31" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="K31" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="L31" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="M31" s="2">
         <v>0.32755200000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -6931,7 +6939,7 @@
         <v>130</v>
       </c>
       <c r="D32" t="s">
-        <v>141</v>
+        <v>484</v>
       </c>
       <c r="E32" s="1">
         <v>3739</v>
@@ -6946,22 +6954,22 @@
         <v>0.12385400000000001</v>
       </c>
       <c r="I32" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="J32" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="K32" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="L32" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="M32" s="2">
         <v>0.34355200000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -6972,7 +6980,7 @@
         <v>130</v>
       </c>
       <c r="D33" t="s">
-        <v>141</v>
+        <v>484</v>
       </c>
       <c r="E33" s="1">
         <v>3739</v>
@@ -6987,22 +6995,22 @@
         <v>0.12120499999999999</v>
       </c>
       <c r="I33" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="J33" t="s">
+        <v>256</v>
+      </c>
+      <c r="K33" t="s">
         <v>272</v>
       </c>
-      <c r="K33" t="s">
-        <v>288</v>
-      </c>
       <c r="L33" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="M33" s="2">
         <v>0.34118599999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -7013,7 +7021,7 @@
         <v>130</v>
       </c>
       <c r="D34" t="s">
-        <v>141</v>
+        <v>484</v>
       </c>
       <c r="E34" s="1">
         <v>3739</v>
@@ -7028,22 +7036,22 @@
         <v>0.122983</v>
       </c>
       <c r="I34" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="J34" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="K34" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="L34" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="M34" s="2">
         <v>0.31526199999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -7054,7 +7062,7 @@
         <v>130</v>
       </c>
       <c r="D35" t="s">
-        <v>142</v>
+        <v>485</v>
       </c>
       <c r="E35" s="1">
         <v>3769</v>
@@ -7069,22 +7077,22 @@
         <v>0.14757200000000001</v>
       </c>
       <c r="I35" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="J35" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="K35" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="L35" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="M35" s="2">
         <v>0.37956699999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -7095,7 +7103,7 @@
         <v>130</v>
       </c>
       <c r="D36" t="s">
-        <v>142</v>
+        <v>485</v>
       </c>
       <c r="E36" s="1">
         <v>3769</v>
@@ -7110,22 +7118,22 @@
         <v>0.14945800000000001</v>
       </c>
       <c r="I36" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="J36" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="K36" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="L36" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="M36" s="2">
         <v>0.33158599999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -7136,7 +7144,7 @@
         <v>130</v>
       </c>
       <c r="D37" t="s">
-        <v>142</v>
+        <v>485</v>
       </c>
       <c r="E37" s="1">
         <v>3769</v>
@@ -7151,22 +7159,22 @@
         <v>0.12111</v>
       </c>
       <c r="I37" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="J37" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="K37" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="L37" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="M37" s="2">
         <v>0.28884700000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -7177,7 +7185,7 @@
         <v>130</v>
       </c>
       <c r="D38" t="s">
-        <v>143</v>
+        <v>486</v>
       </c>
       <c r="E38" s="1">
         <v>3746</v>
@@ -7192,19 +7200,19 @@
         <v>0.13480200000000001</v>
       </c>
       <c r="I38" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="J38" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="K38" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="M38" s="2">
         <v>0.35328100000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -7215,7 +7223,7 @@
         <v>130</v>
       </c>
       <c r="D39" t="s">
-        <v>143</v>
+        <v>486</v>
       </c>
       <c r="E39" s="1">
         <v>3746</v>
@@ -7230,19 +7238,19 @@
         <v>0.14713899999999999</v>
       </c>
       <c r="I39" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="J39" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="K39" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="M39" s="2">
         <v>0.33442899999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -7253,7 +7261,7 @@
         <v>130</v>
       </c>
       <c r="D40" t="s">
-        <v>143</v>
+        <v>486</v>
       </c>
       <c r="E40" s="1">
         <v>3746</v>
@@ -7268,22 +7276,22 @@
         <v>0.12361999999999999</v>
       </c>
       <c r="I40" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="J40" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="K40" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="L40" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="M40" s="2">
         <v>0.31229000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -7294,7 +7302,7 @@
         <v>130</v>
       </c>
       <c r="D41" t="s">
-        <v>144</v>
+        <v>487</v>
       </c>
       <c r="E41" s="1">
         <v>3759</v>
@@ -7309,22 +7317,22 @@
         <v>0.12635099999999999</v>
       </c>
       <c r="I41" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="J41" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="K41" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="L41" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="M41" s="2">
         <v>0.363678</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -7335,7 +7343,7 @@
         <v>130</v>
       </c>
       <c r="D42" t="s">
-        <v>144</v>
+        <v>487</v>
       </c>
       <c r="E42" s="1">
         <v>3759</v>
@@ -7350,22 +7358,22 @@
         <v>0.13028100000000001</v>
       </c>
       <c r="I42" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="J42" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="K42" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="L42" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="M42" s="2">
         <v>0.32258599999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -7376,7 +7384,7 @@
         <v>130</v>
       </c>
       <c r="D43" t="s">
-        <v>144</v>
+        <v>487</v>
       </c>
       <c r="E43" s="1">
         <v>3759</v>
@@ -7391,19 +7399,19 @@
         <v>9.6283999999999995E-2</v>
       </c>
       <c r="I43" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="J43" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="K43" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="M43" s="2">
         <v>0.31373600000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -7414,7 +7422,7 @@
         <v>130</v>
       </c>
       <c r="D44" t="s">
-        <v>145</v>
+        <v>488</v>
       </c>
       <c r="E44" s="1">
         <v>3742</v>
@@ -7429,22 +7437,22 @@
         <v>0.134543</v>
       </c>
       <c r="I44" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="J44" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="K44" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="L44" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="M44" s="2">
         <v>0.388324</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -7455,7 +7463,7 @@
         <v>130</v>
       </c>
       <c r="D45" t="s">
-        <v>145</v>
+        <v>488</v>
       </c>
       <c r="E45" s="1">
         <v>3742</v>
@@ -7470,22 +7478,22 @@
         <v>0.13539599999999999</v>
       </c>
       <c r="I45" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="J45" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="K45" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="L45" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="M45" s="2">
         <v>0.308616</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -7496,7 +7504,7 @@
         <v>130</v>
       </c>
       <c r="D46" t="s">
-        <v>145</v>
+        <v>488</v>
       </c>
       <c r="E46" s="1">
         <v>3742</v>
@@ -7511,22 +7519,22 @@
         <v>0.12679299999999999</v>
       </c>
       <c r="I46" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="J46" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="K46" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="L46" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="M46" s="2">
         <v>0.30306100000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -7537,7 +7545,7 @@
         <v>130</v>
       </c>
       <c r="D47" t="s">
-        <v>146</v>
+        <v>489</v>
       </c>
       <c r="E47" s="1">
         <v>3760</v>
@@ -7552,19 +7560,19 @@
         <v>0.113996</v>
       </c>
       <c r="I47" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="J47" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="K47" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="M47" s="2">
         <v>0.35045100000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -7575,7 +7583,7 @@
         <v>130</v>
       </c>
       <c r="D48" t="s">
-        <v>146</v>
+        <v>489</v>
       </c>
       <c r="E48" s="1">
         <v>3760</v>
@@ -7590,19 +7598,19 @@
         <v>0.13122600000000001</v>
       </c>
       <c r="I48" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="J48" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="K48" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="M48" s="2">
         <v>0.33012599999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -7613,7 +7621,7 @@
         <v>130</v>
       </c>
       <c r="D49" t="s">
-        <v>146</v>
+        <v>489</v>
       </c>
       <c r="E49" s="1">
         <v>3760</v>
@@ -7628,13 +7636,13 @@
         <v>0.110439</v>
       </c>
       <c r="I49" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="J49" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="K49" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="M49" s="2">
         <v>0.31942300000000001</v>
@@ -7652,14 +7660,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="13" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -7673,13 +7681,13 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -7700,7 +7708,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7711,7 +7719,7 @@
         <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>474</v>
       </c>
       <c r="E2" s="1">
         <v>3760</v>
@@ -7726,22 +7734,22 @@
         <v>0.16714399999999999</v>
       </c>
       <c r="I2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J2" t="s">
+        <v>438</v>
+      </c>
+      <c r="K2" t="s">
         <v>428</v>
       </c>
-      <c r="J2" t="s">
-        <v>454</v>
-      </c>
-      <c r="K2" t="s">
-        <v>444</v>
-      </c>
       <c r="L2" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="M2" s="2">
         <v>0.398063</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7752,7 +7760,7 @@
         <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>474</v>
       </c>
       <c r="E3" s="1">
         <v>3760</v>
@@ -7767,16 +7775,16 @@
         <v>0.17150000000000001</v>
       </c>
       <c r="I3" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="J3" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="M3" s="2">
         <v>0.30427900000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7787,7 +7795,7 @@
         <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>474</v>
       </c>
       <c r="E4" s="1">
         <v>3760</v>
@@ -7802,16 +7810,16 @@
         <v>0.18729000000000001</v>
       </c>
       <c r="I4" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="J4" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="M4" s="2">
         <v>0.29765799999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7822,7 +7830,7 @@
         <v>130</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>475</v>
       </c>
       <c r="E5" s="1">
         <v>3737</v>
@@ -7837,19 +7845,19 @@
         <v>0.162774</v>
       </c>
       <c r="I5" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="J5" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="K5" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="M5" s="2">
         <v>0.38633499999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7860,7 +7868,7 @@
         <v>130</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>475</v>
       </c>
       <c r="E6" s="1">
         <v>3737</v>
@@ -7875,16 +7883,16 @@
         <v>0.15824199999999999</v>
       </c>
       <c r="I6" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="J6" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="M6" s="2">
         <v>0.311969</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7895,7 +7903,7 @@
         <v>130</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>475</v>
       </c>
       <c r="E7" s="1">
         <v>3737</v>
@@ -7910,19 +7918,19 @@
         <v>0.16042799999999999</v>
       </c>
       <c r="I7" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="J7" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="K7" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="M7" s="2">
         <v>0.30169600000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7933,7 +7941,7 @@
         <v>130</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>476</v>
       </c>
       <c r="E8" s="1">
         <v>3746</v>
@@ -7948,22 +7956,22 @@
         <v>0.17730599999999999</v>
       </c>
       <c r="I8" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="J8" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="K8" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="L8" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="M8" s="2">
         <v>0.38989499999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7974,7 +7982,7 @@
         <v>130</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
+        <v>476</v>
       </c>
       <c r="E9" s="1">
         <v>3746</v>
@@ -7989,19 +7997,19 @@
         <v>0.16672899999999999</v>
       </c>
       <c r="I9" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="J9" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="K9" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="M9" s="2">
         <v>0.315133</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -8012,7 +8020,7 @@
         <v>130</v>
       </c>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>476</v>
       </c>
       <c r="E10" s="1">
         <v>3746</v>
@@ -8027,16 +8035,16 @@
         <v>0.18447</v>
       </c>
       <c r="I10" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="J10" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="M10" s="2">
         <v>0.29497200000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -8047,7 +8055,7 @@
         <v>130</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>477</v>
       </c>
       <c r="E11" s="1">
         <v>3761</v>
@@ -8062,22 +8070,22 @@
         <v>0.163662</v>
       </c>
       <c r="I11" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="J11" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="K11" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="L11" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="M11" s="2">
         <v>0.40053800000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -8088,7 +8096,7 @@
         <v>130</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>477</v>
       </c>
       <c r="E12" s="1">
         <v>3761</v>
@@ -8103,16 +8111,16 @@
         <v>0.17347699999999999</v>
       </c>
       <c r="I12" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="J12" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="M12" s="2">
         <v>0.299626</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -8123,7 +8131,7 @@
         <v>130</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>477</v>
       </c>
       <c r="E13" s="1">
         <v>3761</v>
@@ -8138,19 +8146,19 @@
         <v>0.158416</v>
       </c>
       <c r="I13" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="J13" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="K13" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="M13" s="2">
         <v>0.29983500000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -8161,7 +8169,7 @@
         <v>130</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>478</v>
       </c>
       <c r="E14" s="1">
         <v>3755</v>
@@ -8176,16 +8184,16 @@
         <v>0.19856299999999999</v>
       </c>
       <c r="I14" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="J14" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="M14" s="2">
         <v>0.337835</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -8196,7 +8204,7 @@
         <v>130</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>478</v>
       </c>
       <c r="E15" s="1">
         <v>3755</v>
@@ -8211,16 +8219,16 @@
         <v>0.157083</v>
       </c>
       <c r="I15" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="J15" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="M15" s="2">
         <v>0.34347100000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -8231,7 +8239,7 @@
         <v>130</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>478</v>
       </c>
       <c r="E16" s="1">
         <v>3755</v>
@@ -8246,19 +8254,19 @@
         <v>0.16156400000000001</v>
       </c>
       <c r="I16" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="J16" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="K16" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="M16" s="2">
         <v>0.318693</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -8269,7 +8277,7 @@
         <v>130</v>
       </c>
       <c r="D17" t="s">
-        <v>136</v>
+        <v>479</v>
       </c>
       <c r="E17" s="1">
         <v>3749</v>
@@ -8284,19 +8292,19 @@
         <v>0.17774200000000001</v>
       </c>
       <c r="I17" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="J17" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="K17" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="M17" s="2">
         <v>0.38953100000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -8307,7 +8315,7 @@
         <v>130</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>479</v>
       </c>
       <c r="E18" s="1">
         <v>3749</v>
@@ -8322,19 +8330,19 @@
         <v>0.162773</v>
       </c>
       <c r="I18" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="J18" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="K18" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="M18" s="2">
         <v>0.31815500000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -8345,7 +8353,7 @@
         <v>130</v>
       </c>
       <c r="D19" t="s">
-        <v>136</v>
+        <v>479</v>
       </c>
       <c r="E19" s="1">
         <v>3749</v>
@@ -8360,16 +8368,16 @@
         <v>0.16734199999999999</v>
       </c>
       <c r="I19" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="J19" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="M19" s="2">
         <v>0.29231400000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -8380,7 +8388,7 @@
         <v>130</v>
       </c>
       <c r="D20" t="s">
-        <v>137</v>
+        <v>480</v>
       </c>
       <c r="E20" s="1">
         <v>3743</v>
@@ -8395,19 +8403,19 @@
         <v>0.15539700000000001</v>
       </c>
       <c r="I20" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="J20" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="K20" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="M20" s="2">
         <v>0.33552100000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -8418,7 +8426,7 @@
         <v>130</v>
       </c>
       <c r="D21" t="s">
-        <v>137</v>
+        <v>480</v>
       </c>
       <c r="E21" s="1">
         <v>3743</v>
@@ -8433,16 +8441,16 @@
         <v>0.146615</v>
       </c>
       <c r="I21" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="J21" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="M21" s="2">
         <v>0.33885799999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -8453,7 +8461,7 @@
         <v>130</v>
       </c>
       <c r="D22" t="s">
-        <v>137</v>
+        <v>480</v>
       </c>
       <c r="E22" s="1">
         <v>3743</v>
@@ -8468,16 +8476,16 @@
         <v>0.153886</v>
       </c>
       <c r="I22" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="J22" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="M22" s="2">
         <v>0.32562200000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -8488,7 +8496,7 @@
         <v>130</v>
       </c>
       <c r="D23" t="s">
-        <v>138</v>
+        <v>481</v>
       </c>
       <c r="E23" s="1">
         <v>3734</v>
@@ -8503,22 +8511,22 @@
         <v>0.15794900000000001</v>
       </c>
       <c r="I23" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="J23" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="K23" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="L23" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="M23" s="2">
         <v>0.41070099999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -8529,7 +8537,7 @@
         <v>130</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>481</v>
       </c>
       <c r="E24" s="1">
         <v>3734</v>
@@ -8544,16 +8552,16 @@
         <v>0.18073400000000001</v>
       </c>
       <c r="I24" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="J24" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="M24" s="2">
         <v>0.304761</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -8564,7 +8572,7 @@
         <v>130</v>
       </c>
       <c r="D25" t="s">
-        <v>138</v>
+        <v>481</v>
       </c>
       <c r="E25" s="1">
         <v>3734</v>
@@ -8579,19 +8587,19 @@
         <v>0.17138500000000001</v>
       </c>
       <c r="I25" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="J25" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="K25" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="M25" s="2">
         <v>0.28453800000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -8602,7 +8610,7 @@
         <v>130</v>
       </c>
       <c r="D26" t="s">
-        <v>139</v>
+        <v>482</v>
       </c>
       <c r="E26" s="1">
         <v>3756</v>
@@ -8617,22 +8625,22 @@
         <v>0.197411</v>
       </c>
       <c r="I26" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="J26" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="K26" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="L26" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="M26" s="2">
         <v>0.39882200000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -8643,7 +8651,7 @@
         <v>130</v>
       </c>
       <c r="D27" t="s">
-        <v>139</v>
+        <v>482</v>
       </c>
       <c r="E27" s="1">
         <v>3756</v>
@@ -8658,19 +8666,19 @@
         <v>0.19417499999999999</v>
       </c>
       <c r="I27" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="J27" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="K27" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="M27" s="2">
         <v>0.30719400000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -8681,7 +8689,7 @@
         <v>130</v>
       </c>
       <c r="D28" t="s">
-        <v>139</v>
+        <v>482</v>
       </c>
       <c r="E28" s="1">
         <v>3756</v>
@@ -8696,19 +8704,19 @@
         <v>0.12717999999999999</v>
       </c>
       <c r="I28" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="J28" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="K28" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="M28" s="2">
         <v>0.29398400000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -8719,7 +8727,7 @@
         <v>130</v>
       </c>
       <c r="D29" t="s">
-        <v>140</v>
+        <v>483</v>
       </c>
       <c r="E29" s="1">
         <v>3743</v>
@@ -8734,22 +8742,22 @@
         <v>0.198521</v>
       </c>
       <c r="I29" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="J29" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="K29" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="L29" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="M29" s="2">
         <v>0.40166000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -8760,7 +8768,7 @@
         <v>130</v>
       </c>
       <c r="D30" t="s">
-        <v>140</v>
+        <v>483</v>
       </c>
       <c r="E30" s="1">
         <v>3743</v>
@@ -8775,19 +8783,19 @@
         <v>0.17183899999999999</v>
       </c>
       <c r="I30" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="J30" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="K30" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="M30" s="2">
         <v>0.30903799999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -8798,7 +8806,7 @@
         <v>130</v>
       </c>
       <c r="D31" t="s">
-        <v>140</v>
+        <v>483</v>
       </c>
       <c r="E31" s="1">
         <v>3743</v>
@@ -8813,19 +8821,19 @@
         <v>0.13106200000000001</v>
       </c>
       <c r="I31" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="J31" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="K31" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="M31" s="2">
         <v>0.289302</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -8836,7 +8844,7 @@
         <v>130</v>
       </c>
       <c r="D32" t="s">
-        <v>141</v>
+        <v>484</v>
       </c>
       <c r="E32" s="1">
         <v>3739</v>
@@ -8851,16 +8859,16 @@
         <v>0.19397400000000001</v>
       </c>
       <c r="I32" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="J32" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="M32" s="2">
         <v>0.33515400000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -8871,7 +8879,7 @@
         <v>130</v>
       </c>
       <c r="D33" t="s">
-        <v>141</v>
+        <v>484</v>
       </c>
       <c r="E33" s="1">
         <v>3739</v>
@@ -8886,16 +8894,16 @@
         <v>0.18085699999999999</v>
       </c>
       <c r="I33" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="J33" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="M33" s="2">
         <v>0.33890900000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -8906,7 +8914,7 @@
         <v>130</v>
       </c>
       <c r="D34" t="s">
-        <v>141</v>
+        <v>484</v>
       </c>
       <c r="E34" s="1">
         <v>3739</v>
@@ -8921,19 +8929,19 @@
         <v>0.13794899999999999</v>
       </c>
       <c r="I34" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="J34" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="K34" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="M34" s="2">
         <v>0.32593699999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -8944,7 +8952,7 @@
         <v>130</v>
       </c>
       <c r="D35" t="s">
-        <v>142</v>
+        <v>485</v>
       </c>
       <c r="E35" s="1">
         <v>3769</v>
@@ -8959,19 +8967,19 @@
         <v>0.19023699999999999</v>
       </c>
       <c r="I35" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="J35" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="K35" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="M35" s="2">
         <v>0.37857299999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -8982,7 +8990,7 @@
         <v>130</v>
       </c>
       <c r="D36" t="s">
-        <v>142</v>
+        <v>485</v>
       </c>
       <c r="E36" s="1">
         <v>3769</v>
@@ -8997,19 +9005,19 @@
         <v>0.19509199999999999</v>
       </c>
       <c r="I36" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="J36" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="K36" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="M36" s="2">
         <v>0.33045099999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -9020,7 +9028,7 @@
         <v>130</v>
       </c>
       <c r="D37" t="s">
-        <v>142</v>
+        <v>485</v>
       </c>
       <c r="E37" s="1">
         <v>3769</v>
@@ -9035,19 +9043,19 @@
         <v>0.155469</v>
       </c>
       <c r="I37" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="J37" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="K37" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="M37" s="2">
         <v>0.29097600000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -9058,7 +9066,7 @@
         <v>130</v>
       </c>
       <c r="D38" t="s">
-        <v>143</v>
+        <v>486</v>
       </c>
       <c r="E38" s="1">
         <v>3746</v>
@@ -9073,22 +9081,22 @@
         <v>0.19191900000000001</v>
       </c>
       <c r="I38" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="J38" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="K38" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="L38" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="M38" s="2">
         <v>0.40404800000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -9099,7 +9107,7 @@
         <v>130</v>
       </c>
       <c r="D39" t="s">
-        <v>143</v>
+        <v>486</v>
       </c>
       <c r="E39" s="1">
         <v>3746</v>
@@ -9114,22 +9122,22 @@
         <v>0.169929</v>
       </c>
       <c r="I39" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="J39" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="K39" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="L39" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="M39" s="2">
         <v>0.30810999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -9140,7 +9148,7 @@
         <v>130</v>
       </c>
       <c r="D40" t="s">
-        <v>143</v>
+        <v>486</v>
       </c>
       <c r="E40" s="1">
         <v>3746</v>
@@ -9155,16 +9163,16 @@
         <v>0.19703799999999999</v>
       </c>
       <c r="I40" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="J40" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="M40" s="2">
         <v>0.28784100000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -9175,7 +9183,7 @@
         <v>130</v>
       </c>
       <c r="D41" t="s">
-        <v>144</v>
+        <v>487</v>
       </c>
       <c r="E41" s="1">
         <v>3759</v>
@@ -9190,19 +9198,19 @@
         <v>0.158197</v>
       </c>
       <c r="I41" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="J41" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="K41" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="M41" s="2">
         <v>0.362037</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -9213,7 +9221,7 @@
         <v>130</v>
       </c>
       <c r="D42" t="s">
-        <v>144</v>
+        <v>487</v>
       </c>
       <c r="E42" s="1">
         <v>3759</v>
@@ -9228,16 +9236,16 @@
         <v>0.169381</v>
       </c>
       <c r="I42" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="J42" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="M42" s="2">
         <v>0.32626100000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -9248,7 +9256,7 @@
         <v>130</v>
       </c>
       <c r="D43" t="s">
-        <v>144</v>
+        <v>487</v>
       </c>
       <c r="E43" s="1">
         <v>3759</v>
@@ -9263,19 +9271,19 @@
         <v>0.113353</v>
       </c>
       <c r="I43" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="J43" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="K43" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="M43" s="2">
         <v>0.31170100000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -9286,7 +9294,7 @@
         <v>130</v>
       </c>
       <c r="D44" t="s">
-        <v>145</v>
+        <v>488</v>
       </c>
       <c r="E44" s="1">
         <v>3742</v>
@@ -9301,19 +9309,19 @@
         <v>0.16703699999999999</v>
       </c>
       <c r="I44" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="J44" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="K44" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="M44" s="2">
         <v>0.38655099999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -9324,7 +9332,7 @@
         <v>130</v>
       </c>
       <c r="D45" t="s">
-        <v>145</v>
+        <v>488</v>
       </c>
       <c r="E45" s="1">
         <v>3742</v>
@@ -9339,19 +9347,19 @@
         <v>0.164939</v>
       </c>
       <c r="I45" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="J45" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="K45" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="M45" s="2">
         <v>0.31093300000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -9362,7 +9370,7 @@
         <v>130</v>
       </c>
       <c r="D46" t="s">
-        <v>145</v>
+        <v>488</v>
       </c>
       <c r="E46" s="1">
         <v>3742</v>
@@ -9377,19 +9385,19 @@
         <v>0.162575</v>
       </c>
       <c r="I46" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="J46" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="K46" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="M46" s="2">
         <v>0.30251600000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -9400,7 +9408,7 @@
         <v>130</v>
       </c>
       <c r="D47" t="s">
-        <v>146</v>
+        <v>489</v>
       </c>
       <c r="E47" s="1">
         <v>3760</v>
@@ -9415,19 +9423,19 @@
         <v>0.18316499999999999</v>
       </c>
       <c r="I47" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="J47" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="K47" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="M47" s="2">
         <v>0.36962899999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -9438,7 +9446,7 @@
         <v>130</v>
       </c>
       <c r="D48" t="s">
-        <v>146</v>
+        <v>489</v>
       </c>
       <c r="E48" s="1">
         <v>3760</v>
@@ -9453,16 +9461,16 @@
         <v>0.15434100000000001</v>
       </c>
       <c r="I48" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="J48" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="M48" s="2">
         <v>0.32556099999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -9473,7 +9481,7 @@
         <v>130</v>
       </c>
       <c r="D49" t="s">
-        <v>146</v>
+        <v>489</v>
       </c>
       <c r="E49" s="1">
         <v>3760</v>
@@ -9488,10 +9496,10 @@
         <v>0.17710100000000001</v>
       </c>
       <c r="I49" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="J49" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="M49" s="2">
         <v>0.30481000000000003</v>
@@ -9775,13 +9783,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5B087FF-1CB2-4344-B466-21B22C5FEA68}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5B087FF-1CB2-4344-B466-21B22C5FEA68}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="94dc1244-2250-4226-8a6d-024056f3e2cb"/>
+    <ds:schemaRef ds:uri="35e04e53-8035-4693-a7c1-f4caf4429e95"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D919A813-5AF7-44B0-9FD1-3C399238A9B7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D919A813-5AF7-44B0-9FD1-3C399238A9B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBCEB596-B2D5-4BC9-B711-59EB980B9A7B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBCEB596-B2D5-4BC9-B711-59EB980B9A7B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="35e04e53-8035-4693-a7c1-f4caf4429e95"/>
+    <ds:schemaRef ds:uri="94dc1244-2250-4226-8a6d-024056f3e2cb"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>